--- a/Revised_data/Consensus.xlsx
+++ b/Revised_data/Consensus.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +631,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -658,14 +658,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SKU 6</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2.12</v>
+        <v>7.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.332</v>
+        <v>17.6</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -674,19 +674,15 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -703,26 +699,26 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>1.696</v>
+        <v>6.916</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 6</t>
+          <t>Chain 5_Depot 2_SKU 7</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6_45597</t>
+          <t>Reliance_Mundka_Product_7_45566</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6</t>
+          <t>Reliance_Mundka_Product_7</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
-        <v>2.5228</v>
+        <v>8.208</v>
       </c>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
@@ -733,24 +729,24 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -760,14 +756,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="K3" t="n">
-        <v>2.684</v>
+        <v>11.84</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -776,14 +772,10 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -805,37 +797,37 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>2.1472</v>
+        <v>1.7296</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 3</t>
+          <t>Chain 6_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3_45597</t>
+          <t>Grofers_Ahmedabad_Product_9_45566</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3</t>
+          <t>Grofers_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>2.7328</v>
+        <v>2.208</v>
       </c>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2.8848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -852,7 +844,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -866,10 +858,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>44.08</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>48.488</v>
+        <v>16.3</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -878,19 +870,15 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>421.92</v>
+        <v>383.52</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -907,37 +895,37 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>36.5864</v>
+        <v>5.859000000000001</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 7</t>
+          <t>Chain 5_Depot 4_SKU 7</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7_45597</t>
+          <t>Reliance_Ahmedabad_Product_7_45566</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7</t>
+          <t>Reliance_Ahmedabad_Product_7</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>48.9288</v>
+        <v>6.867000000000001</v>
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>-2.5008</v>
+        <v>3.3552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -949,12 +937,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chain 6</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -964,14 +952,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>13.72</v>
+        <v>16</v>
       </c>
       <c r="K5" t="n">
-        <v>15.092</v>
+        <v>26</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -980,14 +968,10 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -1009,26 +993,26 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>13.5828</v>
+        <v>12.96</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Chain 6_Depot 4_SKU 9</t>
+          <t>Chain 2_Depot 8_SKU 3</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9_45597</t>
+          <t>Swiggy_Chennai_Product_3_45566</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9</t>
+          <t>Swiggy_Chennai_Product_3</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>16.0524</v>
+        <v>18.88</v>
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
@@ -1039,24 +1023,24 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1066,14 +1050,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 6</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3.78</v>
+        <v>1.76</v>
       </c>
       <c r="K6" t="n">
-        <v>4.158</v>
+        <v>11.76</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1082,14 +1066,10 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1111,26 +1091,26 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>3.477600000000001</v>
+        <v>1.5312</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 9</t>
+          <t>Chain 5_Depot 2_SKU 6</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9_45597</t>
+          <t>Reliance_Mundka_Product_6_45566</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9</t>
+          <t>Reliance_Mundka_Product_6</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>4.309200000000001</v>
+        <v>1.936</v>
       </c>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
@@ -1141,7 +1121,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -1168,14 +1148,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>33.3</v>
+        <v>6.88</v>
       </c>
       <c r="K7" t="n">
-        <v>36.63000000000001</v>
+        <v>16.88</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1184,19 +1164,15 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>748.8</v>
+        <v>672</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1213,37 +1189,37 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>27.63900000000001</v>
+        <v>6.88</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 7</t>
+          <t>Chain 5_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7_45597</t>
+          <t>Reliance_Ahmedabad_Product_9_45566</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7</t>
+          <t>Reliance_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>36.297</v>
+        <v>8.256</v>
       </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>3.268799999999999</v>
+        <v>2.8848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -1260,7 +1236,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1274,10 +1250,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>40.18</v>
+        <v>21.6</v>
       </c>
       <c r="K8" t="n">
-        <v>44.198</v>
+        <v>31.6</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1286,19 +1262,15 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>84</v>
+        <v>383.52</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1315,54 +1287,54 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>37.7692</v>
+        <v>17.28</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 9</t>
+          <t>Chain 5_Depot 8_SKU 9</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9_45597</t>
+          <t>Reliance_Chennai_Product_9_45566</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9</t>
+          <t>Reliance_Chennai_Product_9</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>43.7962</v>
+        <v>25.056</v>
       </c>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>-6.648</v>
+        <v>3.3552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1376,10 +1348,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2.73</v>
+        <v>8.73</v>
       </c>
       <c r="K9" t="n">
-        <v>3.003</v>
+        <v>18.73</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1388,19 +1360,15 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>672</v>
+        <v>84</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1417,37 +1385,37 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>2.5116</v>
+        <v>7.5078</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 8_SKU 3</t>
+          <t>Chain 3_Depot 3_SKU 3</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3_45627</t>
+          <t>Maharashtra_MH-Aggregated_Product_3_45566</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3</t>
+          <t>Maharashtra_MH-Aggregated_Product_3</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>3.0576</v>
+        <v>10.476</v>
       </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>2.8848</v>
+        <v>-6.648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -1478,10 +1446,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>7.04</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>7.744000000000001</v>
+        <v>14.6</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1490,14 +1458,10 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1519,7 +1483,7 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>6.5472</v>
+        <v>4.324</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -1528,7 +1492,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3_45627</t>
+          <t>Reliance_Bangalore_Product_3_45566</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -1538,18 +1502,18 @@
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>8.025600000000001</v>
+        <v>5.428</v>
       </c>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>-2.5008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -1561,12 +1525,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Chain 4</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 5</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1580,10 +1544,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4.36</v>
+        <v>9.76</v>
       </c>
       <c r="K11" t="n">
-        <v>4.796000000000001</v>
+        <v>19.76</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1592,19 +1556,15 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>748.8</v>
+        <v>421.92</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1621,37 +1581,37 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>3.8804</v>
+        <v>8.686399999999999</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Chain 4_Depot 2_SKU 3</t>
+          <t>Chain 2_Depot 5_SKU 3</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3_45627</t>
+          <t>Swiggy_Kolkata CFA_Product_3_45566</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3</t>
+          <t>Swiggy_Kolkata CFA_Product_3</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>4.6216</v>
+        <v>10.4432</v>
       </c>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>3.268799999999999</v>
+        <v>-2.5008</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -1663,7 +1623,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1678,14 +1638,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>SKU 6</t>
+          <t>SKU 2</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>4.75</v>
+        <v>27.5</v>
       </c>
       <c r="K12" t="n">
-        <v>5.225000000000001</v>
+        <v>37.5</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1694,14 +1654,10 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1723,26 +1679,26 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>3.99</v>
+        <v>26.95</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 6</t>
+          <t>Chain 2_Depot 2_SKU 2</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6_45627</t>
+          <t>Swiggy_Mundka_Product_2_45566</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6</t>
+          <t>Swiggy_Mundka_Product_2</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>5.605</v>
+        <v>31.35</v>
       </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
@@ -1753,7 +1709,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -1765,7 +1721,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1780,14 +1736,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>SKU 2</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>3.24</v>
+        <v>16.94</v>
       </c>
       <c r="K13" t="n">
-        <v>3.564000000000001</v>
+        <v>26.94</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1796,19 +1752,15 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>383.52</v>
+        <v>748.8</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1825,54 +1777,54 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>2.7216</v>
+        <v>14.399</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 2_SKU 2</t>
+          <t>Chain 4_Depot 2_SKU 3</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2_45627</t>
+          <t>Zepto_Mundka_Product_3_45566</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2</t>
+          <t>Zepto_Mundka_Product_3</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>3.4668</v>
+        <v>17.787</v>
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>3.268799999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1882,14 +1834,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>7.21</v>
+        <v>1.84</v>
       </c>
       <c r="K14" t="n">
-        <v>7.931000000000001</v>
+        <v>11.84</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1898,14 +1850,10 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1927,54 +1875,54 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>5.8401</v>
+        <v>1.7664</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 3</t>
+          <t>Chain 5_Depot 2_SKU 9</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3_45627</t>
+          <t>Reliance_Mundka_Product_9_45566</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3</t>
+          <t>Reliance_Mundka_Product_9</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>8.075200000000001</v>
+        <v>1.9872</v>
       </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
-        <v>2.8848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1988,10 +1936,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>38.15000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="K15" t="n">
-        <v>41.96500000000001</v>
+        <v>11.82</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -2000,19 +1948,15 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>421.92</v>
+        <v>672</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2029,37 +1973,37 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>31.6645</v>
+        <v>1.4742</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 8_SKU 9</t>
+          <t>Chain 3_Depot 3_SKU 9</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9_45627</t>
+          <t>Maharashtra_MH-Aggregated_Product_9_45566</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9</t>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="n">
-        <v>44.63550000000001</v>
+        <v>2.093</v>
       </c>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
-        <v>-2.5008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -2076,7 +2020,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2086,14 +2030,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>8.119999999999999</v>
+        <v>3.36</v>
       </c>
       <c r="K16" t="n">
-        <v>8.932</v>
+        <v>13.36</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -2102,19 +2046,15 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>421.92</v>
+        <v>672</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2131,54 +2071,54 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>8.119999999999999</v>
+        <v>3.1584</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 9</t>
+          <t>Chain 5_Depot 7_SKU 3</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9_45627</t>
+          <t>Reliance_Bangalore_Product_3_45597</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9</t>
+          <t>Reliance_Bangalore_Product_3</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>8.6884</v>
+        <v>3.6624</v>
       </c>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>2.8848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 4</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2188,14 +2128,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>55.51000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="K17" t="n">
-        <v>61.06100000000001</v>
+        <v>27.7</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2204,19 +2144,15 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>48</v>
+        <v>421.92</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -2233,37 +2169,37 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>44.408</v>
+        <v>16.638</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 9</t>
+          <t>Chain 4_Depot 2_SKU 3</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9_45627</t>
+          <t>Zepto_Mundka_Product_3_45597</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9</t>
+          <t>Zepto_Mundka_Product_3</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
-        <v>62.72630000000001</v>
+        <v>19.47</v>
       </c>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
-        <v>-0.36</v>
+        <v>-2.5008</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -2275,12 +2211,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2290,14 +2226,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1.68</v>
+        <v>3.78</v>
       </c>
       <c r="K18" t="n">
-        <v>1.848</v>
+        <v>13.78</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -2306,19 +2242,15 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -2335,26 +2267,26 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>1.6128</v>
+        <v>3.4398</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 7</t>
+          <t>Chain 2_Depot 8_SKU 3</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7_45627</t>
+          <t>Swiggy_Chennai_Product_3_45597</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7</t>
+          <t>Swiggy_Chennai_Product_3</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
-        <v>1.8984</v>
+        <v>4.0068</v>
       </c>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
@@ -2365,7 +2297,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -2377,12 +2309,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 5</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2392,14 +2324,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>1.122</v>
+        <v>18.7</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2408,19 +2340,15 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>672</v>
+        <v>84</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -2437,54 +2365,54 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>0.8364</v>
+        <v>7.220999999999999</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 9</t>
+          <t>Chain 2_Depot 5_SKU 3</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9_45627</t>
+          <t>Swiggy_Kolkata CFA_Product_3_45597</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9</t>
+          <t>Swiggy_Kolkata CFA_Product_3</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="n">
-        <v>1.1934</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>-6.648</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Chain 6</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2498,10 +2426,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>5.28</v>
+        <v>3.78</v>
       </c>
       <c r="K20" t="n">
-        <v>5.808000000000001</v>
+        <v>13.78</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -2510,19 +2438,15 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>84</v>
+        <v>672</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
@@ -2539,54 +2463,54 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>5.0688</v>
+        <v>3.477600000000001</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>Chain 6_Depot 4_SKU 9</t>
+          <t>Chain 3_Depot 3_SKU 9</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9_45627</t>
+          <t>Maharashtra_MH-Aggregated_Product_9_45597</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9</t>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
-        <v>6.283200000000001</v>
+        <v>4.309200000000001</v>
       </c>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
-        <v>-6.648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2596,14 +2520,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>15.6</v>
+        <v>2.44</v>
       </c>
       <c r="K21" t="n">
-        <v>17.16</v>
+        <v>12.44</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2612,19 +2536,15 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2025-12-03 12:43:40</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>748.8</v>
+        <v>672</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -2641,37 +2561,37 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>13.572</v>
+        <v>2.1472</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 7</t>
+          <t>Chain 3_Depot 3_SKU 3</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7_45627</t>
+          <t>Maharashtra_MH-Aggregated_Product_3_45597</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7</t>
+          <t>Maharashtra_MH-Aggregated_Product_3</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="n">
-        <v>18.096</v>
+        <v>2.7328</v>
       </c>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
-        <v>3.268799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -2698,14 +2618,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1.84</v>
+        <v>44.08</v>
       </c>
       <c r="K22" t="n">
-        <v>2.024</v>
+        <v>54.08</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2714,19 +2634,15 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -2743,37 +2659,37 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>1.7664</v>
+        <v>36.5864</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 9</t>
+          <t>Chain 5_Depot 2_SKU 7</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9_45566</t>
+          <t>Reliance_Mundka_Product_7_45597</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9</t>
+          <t>Reliance_Mundka_Product_7</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
-        <v>1.9872</v>
+        <v>48.9288</v>
       </c>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>-2.5008</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -2785,12 +2701,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Chain 4</t>
+          <t>Chain 6</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2800,14 +2716,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>16.94</v>
+        <v>13.72</v>
       </c>
       <c r="K23" t="n">
-        <v>18.634</v>
+        <v>23.72</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2816,14 +2732,10 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -2845,26 +2757,26 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>14.399</v>
+        <v>13.5828</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>Chain 4_Depot 2_SKU 3</t>
+          <t>Chain 6_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3_45566</t>
+          <t>Grofers_Ahmedabad_Product_9_45597</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3</t>
+          <t>Grofers_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="n">
-        <v>17.787</v>
+        <v>16.0524</v>
       </c>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
@@ -2875,7 +2787,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -2887,12 +2799,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2902,14 +2814,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>SKU 2</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>27.5</v>
+        <v>3.81</v>
       </c>
       <c r="K24" t="n">
-        <v>30.25</v>
+        <v>13.81</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2918,19 +2830,15 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>84</v>
+        <v>383.52</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2947,37 +2855,37 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>26.95</v>
+        <v>3.1623</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 2_SKU 2</t>
+          <t>Chain 5_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2_45566</t>
+          <t>Reliance_Ahmedabad_Product_9_45597</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2</t>
+          <t>Reliance_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="n">
-        <v>31.35</v>
+        <v>4.4958</v>
       </c>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
-        <v>-6.648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -2989,12 +2897,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Depot 5</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3004,14 +2912,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>9.76</v>
+        <v>2.36</v>
       </c>
       <c r="K25" t="n">
-        <v>10.736</v>
+        <v>12.36</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -3020,19 +2928,15 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>421.92</v>
+        <v>672</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -3049,37 +2953,37 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>8.686399999999999</v>
+        <v>2.0768</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 5_SKU 3</t>
+          <t>Chain 5_Depot 8_SKU 9</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>Swiggy_Kolkata CFA_Product_3_45566</t>
+          <t>Reliance_Chennai_Product_9_45597</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>Swiggy_Kolkata CFA_Product_3</t>
+          <t>Reliance_Chennai_Product_9</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="n">
-        <v>10.4432</v>
+        <v>2.5252</v>
       </c>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
-        <v>-2.5008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -3096,7 +3000,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Depot 7</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3106,14 +3010,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 6</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="K26" t="n">
-        <v>5.06</v>
+        <v>12.12</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -3122,19 +3026,15 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>421.92</v>
+        <v>672</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -3151,26 +3051,26 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>4.324</v>
+        <v>1.696</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 7_SKU 3</t>
+          <t>Chain 5_Depot 2_SKU 6</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3_45566</t>
+          <t>Reliance_Mundka_Product_6_45597</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3</t>
+          <t>Reliance_Mundka_Product_6</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
-        <v>5.428</v>
+        <v>2.5228</v>
       </c>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
@@ -3181,24 +3081,24 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3208,14 +3108,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>8.73</v>
+        <v>40.18</v>
       </c>
       <c r="K27" t="n">
-        <v>9.603000000000002</v>
+        <v>50.18</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -3224,14 +3124,10 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -3253,26 +3149,26 @@
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>7.5078</v>
+        <v>37.7692</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 3</t>
+          <t>Chain 5_Depot 2_SKU 9</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3_45566</t>
+          <t>Reliance_Mundka_Product_9_45597</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3</t>
+          <t>Reliance_Mundka_Product_9</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="n">
-        <v>10.476</v>
+        <v>43.7962</v>
       </c>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
@@ -3283,7 +3179,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -3300,7 +3196,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3310,14 +3206,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>21.6</v>
+        <v>33.3</v>
       </c>
       <c r="K28" t="n">
-        <v>23.76000000000001</v>
+        <v>43.3</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -3326,19 +3222,15 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>383.52</v>
+        <v>748.8</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -3355,37 +3247,37 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>17.28</v>
+        <v>27.63900000000001</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 8_SKU 9</t>
+          <t>Chain 5_Depot 4_SKU 7</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9_45566</t>
+          <t>Reliance_Ahmedabad_Product_7_45597</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9</t>
+          <t>Reliance_Ahmedabad_Product_7</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="n">
-        <v>25.056</v>
+        <v>36.297</v>
       </c>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
-        <v>3.3552</v>
+        <v>3.268799999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -3397,12 +3289,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3412,14 +3304,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 2</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>6.88</v>
+        <v>7.92</v>
       </c>
       <c r="K29" t="n">
-        <v>7.568000000000001</v>
+        <v>17.92</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -3428,19 +3320,15 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>672</v>
+        <v>383.52</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -3457,37 +3345,37 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>6.88</v>
+        <v>7.3656</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 9</t>
+          <t>Chain 2_Depot 2_SKU 2</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9_45566</t>
+          <t>Swiggy_Mundka_Product_2_45597</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9</t>
+          <t>Swiggy_Mundka_Product_2</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
-        <v>8.256</v>
+        <v>9.345599999999999</v>
       </c>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="n">
-        <v>2.8848</v>
+        <v>3.3552</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -3518,10 +3406,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1.76</v>
+        <v>4.75</v>
       </c>
       <c r="K30" t="n">
-        <v>1.936</v>
+        <v>104.75</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -3530,19 +3418,15 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>672</v>
+        <v>84</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -3559,7 +3443,7 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>1.5312</v>
+        <v>3.99</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -3568,7 +3452,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6_45566</t>
+          <t>Reliance_Mundka_Product_6_45627</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -3578,18 +3462,18 @@
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
-        <v>1.936</v>
+        <v>5.605</v>
       </c>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>-6.648</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -3601,12 +3485,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3616,14 +3500,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="K31" t="n">
-        <v>17.6</v>
+        <v>115.6</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -3632,14 +3516,10 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -3661,26 +3541,26 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>12.96</v>
+        <v>13.572</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 8_SKU 3</t>
+          <t>Chain 5_Depot 2_SKU 7</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3_45566</t>
+          <t>Reliance_Mundka_Product_7_45627</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3</t>
+          <t>Reliance_Mundka_Product_7</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="n">
-        <v>18.88</v>
+        <v>18.096</v>
       </c>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
@@ -3691,7 +3571,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -3708,7 +3588,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3718,14 +3598,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>6.300000000000001</v>
+        <v>38.15000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>6.930000000000001</v>
+        <v>41.96500000000001</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -3734,7 +3614,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3746,7 +3626,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>383.52</v>
+        <v>421.92</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -3763,37 +3643,37 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>5.859000000000001</v>
+        <v>31.6645</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 7</t>
+          <t>Chain 5_Depot 8_SKU 9</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7_45566</t>
+          <t>Reliance_Chennai_Product_9_45627</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7</t>
+          <t>Reliance_Chennai_Product_9</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="n">
-        <v>6.867000000000001</v>
+        <v>44.63550000000001</v>
       </c>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="n">
-        <v>3.3552</v>
+        <v>-2.5008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
@@ -3805,12 +3685,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Chain 6</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3824,10 +3704,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1.84</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>2.024</v>
+        <v>101.02</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3836,14 +3716,10 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -3865,54 +3741,54 @@
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>1.7296</v>
+        <v>0.8364</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>Chain 6_Depot 4_SKU 9</t>
+          <t>Chain 5_Depot 2_SKU 9</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9_45566</t>
+          <t>Reliance_Mundka_Product_9_45627</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9</t>
+          <t>Reliance_Mundka_Product_9</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="n">
-        <v>2.208</v>
+        <v>1.1934</v>
       </c>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="n">
-        <v>2.8848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3926,10 +3802,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1.82</v>
+        <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>2.002</v>
+        <v>1.122</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -3938,7 +3814,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3967,26 +3843,26 @@
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>1.4742</v>
+        <v>0.8364</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 9</t>
+          <t>Chain 5_Depot 2_SKU 9</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9_45566</t>
+          <t>Reliance_Mundka_Product_9_45627</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9</t>
+          <t>Reliance_Mundka_Product_9</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="n">
-        <v>2.093</v>
+        <v>1.1934</v>
       </c>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
@@ -3997,7 +3873,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
@@ -4014,7 +3890,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4028,10 +3904,10 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>7.6</v>
+        <v>1.68</v>
       </c>
       <c r="K35" t="n">
-        <v>8.359999999999999</v>
+        <v>101.68</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -4040,19 +3916,15 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>421.92</v>
+        <v>672</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -4069,26 +3941,26 @@
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>6.916</v>
+        <v>1.6128</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 7</t>
+          <t>Chain 5_Depot 4_SKU 7</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7_45566</t>
+          <t>Reliance_Ahmedabad_Product_7_45627</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7</t>
+          <t>Reliance_Ahmedabad_Product_7</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="n">
-        <v>8.208</v>
+        <v>1.8984</v>
       </c>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
@@ -4099,7 +3971,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
@@ -4111,7 +3983,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -4126,14 +3998,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>SKU 2</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>7.92</v>
+        <v>15.6</v>
       </c>
       <c r="K36" t="n">
-        <v>8.712</v>
+        <v>17.16</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -4142,7 +4014,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4154,7 +4026,7 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>383.52</v>
+        <v>748.8</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -4171,37 +4043,37 @@
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>7.3656</v>
+        <v>13.572</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 2_SKU 2</t>
+          <t>Chain 5_Depot 2_SKU 7</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2_45597</t>
+          <t>Reliance_Mundka_Product_7_45627</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2</t>
+          <t>Reliance_Mundka_Product_7</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="n">
-        <v>9.345599999999999</v>
+        <v>18.096</v>
       </c>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="n">
-        <v>3.3552</v>
+        <v>3.268799999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
@@ -4213,12 +4085,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4228,14 +4100,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>3.81</v>
+        <v>2.73</v>
       </c>
       <c r="K37" t="n">
-        <v>4.191000000000001</v>
+        <v>3.003</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -4244,7 +4116,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4256,7 +4128,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>383.52</v>
+        <v>672</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -4273,37 +4145,37 @@
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>3.1623</v>
+        <v>2.5116</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 9</t>
+          <t>Chain 2_Depot 8_SKU 3</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9_45597</t>
+          <t>Swiggy_Chennai_Product_3_45627</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9</t>
+          <t>Swiggy_Chennai_Product_3</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="n">
-        <v>4.4958</v>
+        <v>3.0576</v>
       </c>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>2.8848</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
@@ -4315,12 +4187,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 4</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Depot 7</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4334,10 +4206,10 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>3.36</v>
+        <v>4.36</v>
       </c>
       <c r="K38" t="n">
-        <v>3.696000000000001</v>
+        <v>104.36</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -4346,19 +4218,15 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>672</v>
+        <v>748.8</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -4375,37 +4243,37 @@
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>3.1584</v>
+        <v>3.8804</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 7_SKU 3</t>
+          <t>Chain 4_Depot 2_SKU 3</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3_45597</t>
+          <t>Zepto_Mundka_Product_3_45627</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3</t>
+          <t>Zepto_Mundka_Product_3</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="n">
-        <v>3.6624</v>
+        <v>4.6216</v>
       </c>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="n">
-        <v>2.8848</v>
+        <v>3.268799999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
@@ -4422,7 +4290,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 7</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4432,14 +4300,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>2.36</v>
+        <v>7.04</v>
       </c>
       <c r="K39" t="n">
-        <v>2.596</v>
+        <v>7.744000000000001</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -4448,7 +4316,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4460,7 +4328,7 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -4477,37 +4345,37 @@
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>2.0768</v>
+        <v>6.5472</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 8_SKU 9</t>
+          <t>Chain 5_Depot 7_SKU 3</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9_45597</t>
+          <t>Reliance_Bangalore_Product_3_45627</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9</t>
+          <t>Reliance_Bangalore_Product_3</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="n">
-        <v>2.5252</v>
+        <v>8.025600000000001</v>
       </c>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>-2.5008</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
@@ -4519,12 +4387,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Chain 4</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4534,14 +4402,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>17.7</v>
+        <v>1.68</v>
       </c>
       <c r="K40" t="n">
-        <v>19.47</v>
+        <v>1.848</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -4550,7 +4418,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4562,7 +4430,7 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>421.92</v>
+        <v>672</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -4579,37 +4447,37 @@
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>16.638</v>
+        <v>1.6128</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>Chain 4_Depot 2_SKU 3</t>
+          <t>Chain 5_Depot 4_SKU 7</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3_45597</t>
+          <t>Reliance_Ahmedabad_Product_7_45627</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3</t>
+          <t>Reliance_Ahmedabad_Product_7</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="n">
-        <v>19.47</v>
+        <v>1.8984</v>
       </c>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="n">
-        <v>-2.5008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
@@ -4621,12 +4489,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4636,14 +4504,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 6</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>3.78</v>
+        <v>4.75</v>
       </c>
       <c r="K41" t="n">
-        <v>4.158</v>
+        <v>5.225000000000001</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -4652,7 +4520,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4664,7 +4532,7 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>421.92</v>
+        <v>84</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -4681,54 +4549,54 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>3.4398</v>
+        <v>3.99</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 8_SKU 3</t>
+          <t>Chain 5_Depot 2_SKU 6</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3_45597</t>
+          <t>Reliance_Mundka_Product_6_45627</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3</t>
+          <t>Reliance_Mundka_Product_6</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
-        <v>4.0068</v>
+        <v>5.605</v>
       </c>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>-6.648</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Depot 5</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4738,14 +4606,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>8.699999999999999</v>
+        <v>55.51000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>9.57</v>
+        <v>61.06100000000001</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -4754,7 +4622,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4766,7 +4634,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -4783,37 +4651,37 @@
         </is>
       </c>
       <c r="AC42" t="n">
-        <v>7.220999999999999</v>
+        <v>44.408</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 5_SKU 3</t>
+          <t>Chain 3_Depot 3_SKU 9</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>Swiggy_Kolkata CFA_Product_3_45597</t>
+          <t>Maharashtra_MH-Aggregated_Product_9_45627</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>Swiggy_Kolkata CFA_Product_3</t>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="n">
-        <v>9.308999999999999</v>
+        <v>62.72630000000001</v>
       </c>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="n">
-        <v>-6.648</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
@@ -4830,7 +4698,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4840,14 +4708,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>SKU 6</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2.12</v>
+        <v>38.15000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>2.332</v>
+        <v>138.15</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -4856,19 +4724,15 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -4885,54 +4749,54 @@
         </is>
       </c>
       <c r="AC43" t="n">
-        <v>1.696</v>
+        <v>31.6645</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 6</t>
+          <t>Chain 5_Depot 8_SKU 9</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6_45597</t>
+          <t>Reliance_Chennai_Product_9_45627</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6</t>
+          <t>Reliance_Chennai_Product_9</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="n">
-        <v>2.5228</v>
+        <v>44.63550000000001</v>
       </c>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>-2.5008</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4942,14 +4806,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>2.44</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>2.684</v>
+        <v>108.12</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -4958,19 +4822,15 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -4987,26 +4847,26 @@
         </is>
       </c>
       <c r="AC44" t="n">
-        <v>2.1472</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 3</t>
+          <t>Chain 5_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3_45597</t>
+          <t>Reliance_Ahmedabad_Product_9_45627</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3</t>
+          <t>Reliance_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="n">
-        <v>2.7328</v>
+        <v>8.6884</v>
       </c>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
@@ -5017,24 +4877,24 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5044,14 +4904,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>44.08</v>
+        <v>55.51000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>48.488</v>
+        <v>155.51</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -5060,19 +4920,15 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>421.92</v>
+        <v>48</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -5089,37 +4945,37 @@
         </is>
       </c>
       <c r="AC45" t="n">
-        <v>36.5864</v>
+        <v>44.408</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 7</t>
+          <t>Chain 3_Depot 3_SKU 9</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7_45597</t>
+          <t>Maharashtra_MH-Aggregated_Product_9_45627</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7</t>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="n">
-        <v>48.9288</v>
+        <v>62.72630000000001</v>
       </c>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="n">
-        <v>-2.5008</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
@@ -5131,7 +4987,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Chain 6</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -5150,10 +5006,10 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>13.72</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>15.092</v>
+        <v>8.932</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -5162,7 +5018,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -5174,7 +5030,7 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>748.8</v>
+        <v>421.92</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -5191,54 +5047,54 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>13.5828</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>Chain 6_Depot 4_SKU 9</t>
+          <t>Chain 5_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9_45597</t>
+          <t>Reliance_Ahmedabad_Product_9_45627</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9</t>
+          <t>Reliance_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="n">
-        <v>16.0524</v>
+        <v>8.6884</v>
       </c>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="n">
-        <v>3.268799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 6</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -5252,10 +5108,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>3.78</v>
+        <v>5.28</v>
       </c>
       <c r="K47" t="n">
-        <v>4.158</v>
+        <v>5.808000000000001</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -5264,7 +5120,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -5276,7 +5132,7 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>672</v>
+        <v>84</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -5293,37 +5149,37 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>3.477600000000001</v>
+        <v>5.0688</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 9</t>
+          <t>Chain 6_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9_45597</t>
+          <t>Grofers_Ahmedabad_Product_9_45627</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9</t>
+          <t>Grofers_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="n">
-        <v>4.309200000000001</v>
+        <v>6.283200000000001</v>
       </c>
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>-6.648</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
@@ -5335,7 +5191,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 6</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -5350,14 +5206,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>33.3</v>
+        <v>5.28</v>
       </c>
       <c r="K48" t="n">
-        <v>36.63000000000001</v>
+        <v>105.28</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -5366,19 +5222,15 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>748.8</v>
+        <v>84</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -5395,54 +5247,54 @@
         </is>
       </c>
       <c r="AC48" t="n">
-        <v>27.63900000000001</v>
+        <v>5.0688</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 7</t>
+          <t>Chain 6_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7_45597</t>
+          <t>Grofers_Ahmedabad_Product_9_45627</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7</t>
+          <t>Grofers_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="n">
-        <v>36.297</v>
+        <v>6.283200000000001</v>
       </c>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="n">
-        <v>3.268799999999999</v>
+        <v>-6.648</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5452,14 +5304,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>40.18</v>
+        <v>7.21</v>
       </c>
       <c r="K49" t="n">
-        <v>44.198</v>
+        <v>7.931000000000001</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -5468,7 +5320,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -5480,7 +5332,7 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>84</v>
+        <v>672</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -5497,32 +5349,32 @@
         </is>
       </c>
       <c r="AC49" t="n">
-        <v>37.7692</v>
+        <v>5.8401</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 9</t>
+          <t>Chain 3_Depot 3_SKU 3</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9_45597</t>
+          <t>Maharashtra_MH-Aggregated_Product_3_45627</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9</t>
+          <t>Maharashtra_MH-Aggregated_Product_3</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="n">
-        <v>43.7962</v>
+        <v>8.075200000000001</v>
       </c>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="n">
-        <v>-6.648</v>
+        <v>2.8848</v>
       </c>
     </row>
     <row r="50">
@@ -5544,7 +5396,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -5554,14 +5406,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 2</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2.73</v>
+        <v>3.24</v>
       </c>
       <c r="K50" t="n">
-        <v>3.003</v>
+        <v>3.564000000000001</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -5570,7 +5422,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -5582,7 +5434,7 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>672</v>
+        <v>383.52</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -5599,32 +5451,32 @@
         </is>
       </c>
       <c r="AC50" t="n">
-        <v>2.5116</v>
+        <v>2.7216</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 8_SKU 3</t>
+          <t>Chain 2_Depot 2_SKU 2</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3_45627</t>
+          <t>Swiggy_Mundka_Product_2_45627</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3</t>
+          <t>Swiggy_Mundka_Product_2</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="n">
-        <v>3.0576</v>
+        <v>3.4668</v>
       </c>
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="n">
-        <v>2.8848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5641,12 +5493,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Depot 7</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5656,14 +5508,14 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 2</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>7.04</v>
+        <v>3.24</v>
       </c>
       <c r="K51" t="n">
-        <v>7.744000000000001</v>
+        <v>103.24</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -5672,19 +5524,15 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>421.92</v>
+        <v>383.52</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -5701,32 +5549,32 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>6.5472</v>
+        <v>2.7216</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 7_SKU 3</t>
+          <t>Chain 2_Depot 2_SKU 2</t>
         </is>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3_45627</t>
+          <t>Swiggy_Mundka_Product_2_45627</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3</t>
+          <t>Swiggy_Mundka_Product_2</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="n">
-        <v>8.025600000000001</v>
+        <v>3.4668</v>
       </c>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="n">
-        <v>-2.5008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5738,17 +5586,17 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Chain 4</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5762,10 +5610,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>4.36</v>
+        <v>7.21</v>
       </c>
       <c r="K52" t="n">
-        <v>4.796000000000001</v>
+        <v>107.21</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -5774,19 +5622,15 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>748.8</v>
+        <v>672</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -5803,32 +5647,32 @@
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>3.8804</v>
+        <v>5.8401</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>Chain 4_Depot 2_SKU 3</t>
+          <t>Chain 3_Depot 3_SKU 3</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3_45627</t>
+          <t>Maharashtra_MH-Aggregated_Product_3_45627</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3</t>
+          <t>Maharashtra_MH-Aggregated_Product_3</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="n">
-        <v>4.6216</v>
+        <v>8.075200000000001</v>
       </c>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="n">
-        <v>3.268799999999999</v>
+        <v>2.8848</v>
       </c>
     </row>
     <row r="53">
@@ -5845,12 +5689,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5860,14 +5704,14 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>SKU 6</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>4.75</v>
+        <v>2.73</v>
       </c>
       <c r="K53" t="n">
-        <v>5.225000000000001</v>
+        <v>102.73</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -5876,19 +5720,15 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>84</v>
+        <v>672</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -5905,32 +5745,32 @@
         </is>
       </c>
       <c r="AC53" t="n">
-        <v>3.99</v>
+        <v>2.5116</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 6</t>
+          <t>Chain 2_Depot 8_SKU 3</t>
         </is>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6_45627</t>
+          <t>Swiggy_Chennai_Product_3_45627</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6</t>
+          <t>Swiggy_Chennai_Product_3</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="n">
-        <v>5.605</v>
+        <v>3.0576</v>
       </c>
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="n">
-        <v>-6.648</v>
+        <v>2.8848</v>
       </c>
     </row>
     <row r="54">
@@ -5947,12 +5787,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 7</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5962,14 +5802,14 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>SKU 2</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>3.24</v>
+        <v>7.04</v>
       </c>
       <c r="K54" t="n">
-        <v>3.564000000000001</v>
+        <v>107.04</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -5978,19 +5818,15 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>383.52</v>
+        <v>421.92</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -6007,32 +5843,32 @@
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>2.7216</v>
+        <v>6.5472</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 2_SKU 2</t>
+          <t>Chain 5_Depot 7_SKU 3</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2_45627</t>
+          <t>Reliance_Bangalore_Product_3_45627</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2</t>
+          <t>Reliance_Bangalore_Product_3</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="n">
-        <v>3.4668</v>
+        <v>8.025600000000001</v>
       </c>
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>-2.5008</v>
       </c>
     </row>
     <row r="55">
@@ -6044,17 +5880,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 4</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -6068,10 +5904,10 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>7.21</v>
+        <v>4.36</v>
       </c>
       <c r="K55" t="n">
-        <v>7.931000000000001</v>
+        <v>4.796000000000001</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -6080,7 +5916,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2025-12-03 12:51:01</t>
+          <t>2025-12-03 16:50:07</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6092,7 +5928,7 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>672</v>
+        <v>748.8</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -6109,745 +5945,31 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>5.8401</v>
+        <v>3.8804</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 3</t>
+          <t>Chain 4_Depot 2_SKU 3</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3_45627</t>
+          <t>Zepto_Mundka_Product_3_45627</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3</t>
+          <t>Zepto_Mundka_Product_3</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="n">
-        <v>8.075200000000001</v>
+        <v>4.6216</v>
       </c>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="n">
-        <v>2.8848</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Channel 2</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Chain 5</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Depot 8</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>SubCat 2</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>SKU 9</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>38.15000000000001</v>
-      </c>
-      <c r="K56" t="n">
-        <v>41.96500000000001</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="n">
-        <v>421.92</v>
-      </c>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>Forecast</t>
-        </is>
-      </c>
-      <c r="AC56" t="n">
-        <v>31.6645</v>
-      </c>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>Chain 5_Depot 8_SKU 9</t>
-        </is>
-      </c>
-      <c r="AE56" t="inlineStr">
-        <is>
-          <t>Reliance_Chennai_Product_9_45627</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>Reliance_Chennai_Product_9</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="n">
-        <v>44.63550000000001</v>
-      </c>
-      <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
-      <c r="AL56" t="n">
-        <v>-2.5008</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Channel 2</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Chain 5</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Depot 4</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>SubCat 2</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>SKU 9</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="K57" t="n">
-        <v>8.932</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="n">
-        <v>421.92</v>
-      </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>Forecast</t>
-        </is>
-      </c>
-      <c r="AC57" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>Chain 5_Depot 4_SKU 9</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>Reliance_Ahmedabad_Product_9_45627</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>Reliance_Ahmedabad_Product_9</t>
-        </is>
-      </c>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="n">
-        <v>8.6884</v>
-      </c>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Channel 1</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Chain 3</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Depot 3</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>SubCat 2</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>SKU 9</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>55.51000000000001</v>
-      </c>
-      <c r="K58" t="n">
-        <v>61.06100000000001</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="n">
-        <v>48</v>
-      </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>Forecast</t>
-        </is>
-      </c>
-      <c r="AC58" t="n">
-        <v>44.408</v>
-      </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>Chain 3_Depot 3_SKU 9</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>Maharashtra_MH-Aggregated_Product_9_45627</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>Maharashtra_MH-Aggregated_Product_9</t>
-        </is>
-      </c>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="n">
-        <v>62.72630000000001</v>
-      </c>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Channel 2</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Chain 5</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Depot 4</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>SubCat 2</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>SKU 7</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="n">
-        <v>672</v>
-      </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>Forecast</t>
-        </is>
-      </c>
-      <c r="AC59" t="n">
-        <v>1.6128</v>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>Chain 5_Depot 4_SKU 7</t>
-        </is>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>Reliance_Ahmedabad_Product_7_45627</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>Reliance_Ahmedabad_Product_7</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="n">
-        <v>1.8984</v>
-      </c>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Channel 2</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Chain 5</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Depot 2</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>SubCat 2</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>SKU 9</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1.122</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="n">
-        <v>672</v>
-      </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>Forecast</t>
-        </is>
-      </c>
-      <c r="AC60" t="n">
-        <v>0.8364</v>
-      </c>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>Chain 5_Depot 2_SKU 9</t>
-        </is>
-      </c>
-      <c r="AE60" t="inlineStr">
-        <is>
-          <t>Reliance_Mundka_Product_9_45627</t>
-        </is>
-      </c>
-      <c r="AF60" t="inlineStr">
-        <is>
-          <t>Reliance_Mundka_Product_9</t>
-        </is>
-      </c>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="n">
-        <v>1.1934</v>
-      </c>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Channel 2</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Chain 6</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Depot 4</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>SubCat 2</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>SKU 9</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="K61" t="n">
-        <v>5.808000000000001</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="n">
-        <v>84</v>
-      </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>Forecast</t>
-        </is>
-      </c>
-      <c r="AC61" t="n">
-        <v>5.0688</v>
-      </c>
-      <c r="AD61" t="inlineStr">
-        <is>
-          <t>Chain 6_Depot 4_SKU 9</t>
-        </is>
-      </c>
-      <c r="AE61" t="inlineStr">
-        <is>
-          <t>Grofers_Ahmedabad_Product_9_45627</t>
-        </is>
-      </c>
-      <c r="AF61" t="inlineStr">
-        <is>
-          <t>Grofers_Ahmedabad_Product_9</t>
-        </is>
-      </c>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="n">
-        <v>6.283200000000001</v>
-      </c>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
-      <c r="AL61" t="n">
-        <v>-6.648</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Channel 2</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Chain 5</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Depot 2</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>SubCat 2</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>SKU 7</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K62" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2025-12-03 12:51:01</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="n">
-        <v>748.8</v>
-      </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>Forecast</t>
-        </is>
-      </c>
-      <c r="AC62" t="n">
-        <v>13.572</v>
-      </c>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>Chain 5_Depot 2_SKU 7</t>
-        </is>
-      </c>
-      <c r="AE62" t="inlineStr">
-        <is>
-          <t>Reliance_Mundka_Product_7_45627</t>
-        </is>
-      </c>
-      <c r="AF62" t="inlineStr">
-        <is>
-          <t>Reliance_Mundka_Product_7</t>
-        </is>
-      </c>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="n">
-        <v>18.096</v>
-      </c>
-      <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr"/>
-      <c r="AL62" t="n">
         <v>3.268799999999999</v>
       </c>
     </row>

--- a/Revised_data/Consensus.xlsx
+++ b/Revised_data/Consensus.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL55"/>
+  <dimension ref="A1:AM96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,27 +628,32 @@
           <t>ChangeInPrice</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Elasticity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -658,14 +663,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>7.6</v>
+        <v>20337.77</v>
       </c>
       <c r="K2" t="n">
-        <v>17.6</v>
+        <v>22371.547</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -674,15 +679,19 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>421.92</v>
+        <v>672</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -699,26 +708,26 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>6.916</v>
+        <v>20537.77</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 7</t>
+          <t>Chain 3_Depot 3_SKU 9</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7_45566</t>
+          <t>Maharashtra_MH-Aggregated_Product_9_45566</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7</t>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
-        <v>8.208</v>
+        <v>20137.77</v>
       </c>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
@@ -726,10 +735,13 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -741,12 +753,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chain 6</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -756,14 +768,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1.84</v>
+        <v>21410.99</v>
       </c>
       <c r="K3" t="n">
-        <v>11.84</v>
+        <v>23552.089</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -772,15 +784,19 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -797,37 +813,40 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>1.7296</v>
+        <v>21610.99</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>Chain 6_Depot 4_SKU 9</t>
+          <t>Chain 5_Depot 2_SKU 7</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9_45566</t>
+          <t>Reliance_Mundka_Product_7_45566</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9</t>
+          <t>Reliance_Mundka_Product_7</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>2.208</v>
+        <v>21210.99</v>
       </c>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
-        <v>2.8848</v>
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -839,7 +858,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 6</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -854,14 +873,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>6.300000000000001</v>
+        <v>15327.97</v>
       </c>
       <c r="K4" t="n">
-        <v>16.3</v>
+        <v>16860.767</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -870,15 +889,19 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>383.52</v>
+        <v>672</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -895,37 +918,40 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>5.859000000000001</v>
+        <v>15527.97</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 7</t>
+          <t>Chain 6_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7_45566</t>
+          <t>Grofers_Ahmedabad_Product_9_45566</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7</t>
+          <t>Grofers_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>6.867000000000001</v>
+        <v>15127.97</v>
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>3.3552</v>
+        <v>2.8848</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -937,12 +963,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -952,14 +978,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
+        <v>11239.25</v>
       </c>
       <c r="K5" t="n">
-        <v>26</v>
+        <v>12363.175</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -968,15 +994,19 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>748.8</v>
+        <v>383.52</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -993,37 +1023,40 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>12.96</v>
+        <v>11439.25</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 8_SKU 3</t>
+          <t>Chain 5_Depot 4_SKU 7</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3_45566</t>
+          <t>Reliance_Ahmedabad_Product_7_45566</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3</t>
+          <t>Reliance_Ahmedabad_Product_7</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>18.88</v>
+        <v>11039.25</v>
       </c>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>3.268799999999999</v>
+        <v>3.3552</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -1054,10 +1087,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1.76</v>
+        <v>9089.299999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76</v>
+        <v>9998.23</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -1066,10 +1099,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1091,7 +1128,7 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>1.5312</v>
+        <v>9289.299999999999</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1110,7 +1147,7 @@
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>1.936</v>
+        <v>8889.299999999999</v>
       </c>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
@@ -1118,10 +1155,13 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
+      <c r="AM6" t="n">
+        <v>-0.82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -1152,10 +1192,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>6.88</v>
+        <v>20967.63</v>
       </c>
       <c r="K7" t="n">
-        <v>16.88</v>
+        <v>23064.393</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1164,10 +1204,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -1189,7 +1233,7 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>6.88</v>
+        <v>21167.63</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1208,7 +1252,7 @@
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>8.256</v>
+        <v>20767.63</v>
       </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
@@ -1216,10 +1260,13 @@
       <c r="AL7" t="n">
         <v>2.8848</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -1231,7 +1278,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1246,14 +1293,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>21.6</v>
+        <v>23526.76</v>
       </c>
       <c r="K8" t="n">
-        <v>31.6</v>
+        <v>25879.436</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1262,15 +1309,19 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>383.52</v>
+        <v>748.8</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1287,37 +1338,40 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>17.28</v>
+        <v>23726.76</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 8_SKU 9</t>
+          <t>Chain 2_Depot 8_SKU 3</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9_45566</t>
+          <t>Swiggy_Chennai_Product_3_45566</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9</t>
+          <t>Swiggy_Chennai_Product_3</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>25.056</v>
+        <v>23326.76</v>
       </c>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>3.3552</v>
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -1348,10 +1402,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>8.73</v>
+        <v>24236.84</v>
       </c>
       <c r="K9" t="n">
-        <v>18.73</v>
+        <v>26660.524</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1360,10 +1414,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1385,7 +1443,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>7.5078</v>
+        <v>24436.84</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1404,7 +1462,7 @@
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>10.476</v>
+        <v>24036.84</v>
       </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
@@ -1412,10 +1470,13 @@
       <c r="AL9" t="n">
         <v>-6.648</v>
       </c>
+      <c r="AM9" t="n">
+        <v>-0.76</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -1446,10 +1507,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>13628.86</v>
       </c>
       <c r="K10" t="n">
-        <v>14.6</v>
+        <v>14991.746</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1458,10 +1519,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1483,7 +1548,7 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>4.324</v>
+        <v>13828.86</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -1502,7 +1567,7 @@
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>5.428</v>
+        <v>13428.86</v>
       </c>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
@@ -1510,10 +1575,13 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
+      <c r="AM10" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -1544,10 +1612,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>9.76</v>
+        <v>22566.21</v>
       </c>
       <c r="K11" t="n">
-        <v>19.76</v>
+        <v>24822.831</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1556,10 +1624,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1581,7 +1653,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>8.686399999999999</v>
+        <v>22766.21</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -1600,7 +1672,7 @@
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>10.4432</v>
+        <v>22366.21</v>
       </c>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
@@ -1608,10 +1680,13 @@
       <c r="AL11" t="n">
         <v>-2.5008</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.76</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -1642,10 +1717,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>27.5</v>
+        <v>14052.85</v>
       </c>
       <c r="K12" t="n">
-        <v>37.5</v>
+        <v>15458.135</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1654,10 +1729,14 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1679,7 +1758,7 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>26.95</v>
+        <v>14252.85</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -1698,7 +1777,7 @@
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>31.35</v>
+        <v>13852.85</v>
       </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
@@ -1706,10 +1785,13 @@
       <c r="AL12" t="n">
         <v>-6.648</v>
       </c>
+      <c r="AM12" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -1740,10 +1822,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>16.94</v>
+        <v>11410.13</v>
       </c>
       <c r="K13" t="n">
-        <v>26.94</v>
+        <v>12551.143</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1752,10 +1834,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1777,7 +1863,7 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>14.399</v>
+        <v>11610.13</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -1796,7 +1882,7 @@
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>17.787</v>
+        <v>11210.13</v>
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
@@ -1804,10 +1890,13 @@
       <c r="AL13" t="n">
         <v>3.268799999999999</v>
       </c>
+      <c r="AM13" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -1824,7 +1913,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1838,10 +1927,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1.84</v>
+        <v>22317.02</v>
       </c>
       <c r="K14" t="n">
-        <v>11.84</v>
+        <v>24548.722</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1850,15 +1939,19 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>672</v>
+        <v>383.52</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1875,54 +1968,57 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>1.7664</v>
+        <v>22517.02</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 9</t>
+          <t>Chain 5_Depot 8_SKU 9</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9_45566</t>
+          <t>Reliance_Chennai_Product_9_45566</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9</t>
+          <t>Reliance_Chennai_Product_9</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>1.9872</v>
+        <v>22117.02</v>
       </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>3.3552</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45566</v>
+        <v>25569.22969405093</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1936,10 +2032,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1.82</v>
+        <v>6157.8</v>
       </c>
       <c r="K15" t="n">
-        <v>11.82</v>
+        <v>6773.580000000001</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1948,10 +2044,14 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2025-12-03 20:18:54</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1973,26 +2073,26 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>1.4742</v>
+        <v>6357.8</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 9</t>
+          <t>Chain 5_Depot 2_SKU 9</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9_45566</t>
+          <t>Reliance_Mundka_Product_9_45566</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9</t>
+          <t>Reliance_Mundka_Product_9</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="n">
-        <v>2.093</v>
+        <v>5957.8</v>
       </c>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
@@ -2000,10 +2100,13 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
+      <c r="AM15" t="n">
+        <v>-0.63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -2015,12 +2118,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Depot 7</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2034,10 +2137,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>3.36</v>
+        <v>11536.51</v>
       </c>
       <c r="K16" t="n">
-        <v>13.36</v>
+        <v>12690.161</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -2046,15 +2149,19 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2071,37 +2178,40 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>3.1584</v>
+        <v>11736.51</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 7_SKU 3</t>
+          <t>Chain 4_Depot 2_SKU 3</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3_45597</t>
+          <t>Zepto_Mundka_Product_3_45597</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3</t>
+          <t>Zepto_Mundka_Product_3</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>3.6624</v>
+        <v>11336.51</v>
       </c>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
-        <v>2.8848</v>
+        <v>-2.5008</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -2113,7 +2223,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Chain 4</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2128,14 +2238,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 2</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>17.7</v>
+        <v>13957.2</v>
       </c>
       <c r="K17" t="n">
-        <v>27.7</v>
+        <v>15352.92</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -2144,15 +2254,19 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>421.92</v>
+        <v>383.52</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
@@ -2169,37 +2283,40 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>16.638</v>
+        <v>14157.2</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>Chain 4_Depot 2_SKU 3</t>
+          <t>Chain 2_Depot 2_SKU 2</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3_45597</t>
+          <t>Swiggy_Mundka_Product_2_45597</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3</t>
+          <t>Swiggy_Mundka_Product_2</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
-        <v>19.47</v>
+        <v>13757.2</v>
       </c>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
-        <v>-2.5008</v>
+        <v>3.3552</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -2211,12 +2328,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2226,14 +2343,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>3.78</v>
+        <v>20891.62</v>
       </c>
       <c r="K18" t="n">
-        <v>13.78</v>
+        <v>22980.782</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -2242,15 +2359,19 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>421.92</v>
+        <v>383.52</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -2267,26 +2388,26 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>3.4398</v>
+        <v>21091.62</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 8_SKU 3</t>
+          <t>Chain 5_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3_45597</t>
+          <t>Reliance_Ahmedabad_Product_9_45597</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3</t>
+          <t>Reliance_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
-        <v>4.0068</v>
+        <v>20691.62</v>
       </c>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
@@ -2294,10 +2415,13 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
+      <c r="AM18" t="n">
+        <v>-0.55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -2309,12 +2433,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Depot 5</t>
+          <t>Depot 7</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2328,10 +2452,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>8.699999999999999</v>
+        <v>13866.92</v>
       </c>
       <c r="K19" t="n">
-        <v>18.7</v>
+        <v>15253.612</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2340,15 +2464,19 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>84</v>
+        <v>672</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -2365,54 +2493,57 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>7.220999999999999</v>
+        <v>14066.92</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 5_SKU 3</t>
+          <t>Chain 5_Depot 7_SKU 3</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Swiggy_Kolkata CFA_Product_3_45597</t>
+          <t>Reliance_Bangalore_Product_3_45597</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>Swiggy_Kolkata CFA_Product_3</t>
+          <t>Reliance_Bangalore_Product_3</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="n">
-        <v>9.308999999999999</v>
+        <v>13666.92</v>
       </c>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
-        <v>-6.648</v>
+        <v>2.8848</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2426,10 +2557,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>3.78</v>
+        <v>22781</v>
       </c>
       <c r="K20" t="n">
-        <v>13.78</v>
+        <v>25059.1</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -2438,10 +2569,14 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -2463,26 +2598,26 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>3.477600000000001</v>
+        <v>22981</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 9</t>
+          <t>Chain 5_Depot 8_SKU 9</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9_45597</t>
+          <t>Reliance_Chennai_Product_9_45597</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9</t>
+          <t>Reliance_Chennai_Product_9</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
-        <v>4.309200000000001</v>
+        <v>22581</v>
       </c>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
@@ -2490,27 +2625,30 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
+      <c r="AM20" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2524,10 +2662,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2.44</v>
+        <v>23832.29</v>
       </c>
       <c r="K21" t="n">
-        <v>12.44</v>
+        <v>26215.519</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2536,15 +2674,19 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -2561,26 +2703,26 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>2.1472</v>
+        <v>24032.29</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 3</t>
+          <t>Chain 2_Depot 8_SKU 3</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3_45597</t>
+          <t>Swiggy_Chennai_Product_3_45597</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3</t>
+          <t>Swiggy_Chennai_Product_3</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="n">
-        <v>2.7328</v>
+        <v>23632.29</v>
       </c>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
@@ -2588,10 +2730,13 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
+      <c r="AM21" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -2618,14 +2763,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 6</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>44.08</v>
+        <v>9571.77</v>
       </c>
       <c r="K22" t="n">
-        <v>54.08</v>
+        <v>10528.947</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2634,15 +2779,19 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>421.92</v>
+        <v>672</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -2659,54 +2808,57 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>36.5864</v>
+        <v>9771.77</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 7</t>
+          <t>Chain 5_Depot 2_SKU 6</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7_45597</t>
+          <t>Reliance_Mundka_Product_6_45597</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7</t>
+          <t>Reliance_Mundka_Product_6</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
-        <v>48.9288</v>
+        <v>9371.77</v>
       </c>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
-        <v>-2.5008</v>
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>-0.82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Chain 6</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2716,14 +2868,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>13.72</v>
+        <v>24460.32</v>
       </c>
       <c r="K23" t="n">
-        <v>23.72</v>
+        <v>26906.352</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2732,15 +2884,19 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>748.8</v>
+        <v>672</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
@@ -2757,37 +2913,40 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>13.5828</v>
+        <v>24660.32</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>Chain 6_Depot 4_SKU 9</t>
+          <t>Chain 3_Depot 3_SKU 3</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9_45597</t>
+          <t>Maharashtra_MH-Aggregated_Product_3_45597</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9</t>
+          <t>Maharashtra_MH-Aggregated_Product_3</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="n">
-        <v>16.0524</v>
+        <v>24260.32</v>
       </c>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
-        <v>3.268799999999999</v>
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -2804,7 +2963,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2814,14 +2973,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>3.81</v>
+        <v>21704.07</v>
       </c>
       <c r="K24" t="n">
-        <v>13.81</v>
+        <v>23874.477</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2830,15 +2989,19 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>383.52</v>
+        <v>421.92</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -2855,37 +3018,40 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>3.1623</v>
+        <v>21904.07</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 9</t>
+          <t>Chain 5_Depot 2_SKU 7</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9_45597</t>
+          <t>Reliance_Mundka_Product_7_45597</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9</t>
+          <t>Reliance_Mundka_Product_7</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="n">
-        <v>4.4958</v>
+        <v>21504.07</v>
       </c>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>-2.5008</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -2897,12 +3063,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 6</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2916,10 +3082,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2.36</v>
+        <v>15240.36</v>
       </c>
       <c r="K25" t="n">
-        <v>12.36</v>
+        <v>16764.396</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2928,15 +3094,19 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>672</v>
+        <v>748.8</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -2953,54 +3123,57 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>2.0768</v>
+        <v>15440.36</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 8_SKU 9</t>
+          <t>Chain 6_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9_45597</t>
+          <t>Grofers_Ahmedabad_Product_9_45597</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9</t>
+          <t>Grofers_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="n">
-        <v>2.5252</v>
+        <v>15040.36</v>
       </c>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3010,14 +3183,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>SKU 6</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>2.12</v>
+        <v>20951.67</v>
       </c>
       <c r="K26" t="n">
-        <v>12.12</v>
+        <v>23046.837</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -3026,10 +3199,14 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -3051,26 +3228,26 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>1.696</v>
+        <v>21151.67</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 6</t>
+          <t>Chain 3_Depot 3_SKU 9</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6_45597</t>
+          <t>Maharashtra_MH-Aggregated_Product_9_45597</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6</t>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
-        <v>2.5228</v>
+        <v>20751.67</v>
       </c>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
@@ -3078,10 +3255,13 @@
       <c r="AL26" t="n">
         <v>0</v>
       </c>
+      <c r="AM26" t="n">
+        <v>-0.53</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -3112,10 +3292,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>40.18</v>
+        <v>6261.13</v>
       </c>
       <c r="K27" t="n">
-        <v>50.18</v>
+        <v>6887.243</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -3124,10 +3304,14 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -3149,7 +3333,7 @@
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>37.7692</v>
+        <v>6461.13</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -3168,7 +3352,7 @@
       </c>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="n">
-        <v>43.7962</v>
+        <v>6061.13</v>
       </c>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
@@ -3176,10 +3360,13 @@
       <c r="AL27" t="n">
         <v>-6.648</v>
       </c>
+      <c r="AM27" t="n">
+        <v>-0.63</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -3191,12 +3378,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3206,14 +3393,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>33.3</v>
+        <v>23250.85</v>
       </c>
       <c r="K28" t="n">
-        <v>43.3</v>
+        <v>25575.935</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -3222,15 +3409,19 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>748.8</v>
+        <v>84</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -3247,37 +3438,40 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>27.63900000000001</v>
+        <v>23450.85</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 7</t>
+          <t>Chain 2_Depot 5_SKU 3</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7_45597</t>
+          <t>Swiggy_Kolkata CFA_Product_3_45597</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7</t>
+          <t>Swiggy_Kolkata CFA_Product_3</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="n">
-        <v>36.297</v>
+        <v>23050.85</v>
       </c>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
-        <v>3.268799999999999</v>
+        <v>-6.648</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45597</v>
+        <v>25569.22969440972</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -3289,12 +3483,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3304,14 +3498,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>SKU 2</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>7.92</v>
+        <v>11373.21</v>
       </c>
       <c r="K29" t="n">
-        <v>17.92</v>
+        <v>12510.531</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -3320,15 +3514,19 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2025-12-03 17:46:54</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>383.52</v>
+        <v>748.8</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
@@ -3345,37 +3543,40 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>7.3656</v>
+        <v>11573.21</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 2_SKU 2</t>
+          <t>Chain 5_Depot 4_SKU 7</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2_45597</t>
+          <t>Reliance_Ahmedabad_Product_7_45597</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2</t>
+          <t>Reliance_Ahmedabad_Product_7</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
-        <v>9.345599999999999</v>
+        <v>11173.21</v>
       </c>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="n">
-        <v>3.3552</v>
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -3402,14 +3603,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>SKU 6</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>4.75</v>
+        <v>22163.71</v>
       </c>
       <c r="K30" t="n">
-        <v>104.75</v>
+        <v>24380.081</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -3418,15 +3619,19 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>84</v>
+        <v>748.8</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -3443,37 +3648,40 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>3.99</v>
+        <v>22363.71</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 6</t>
+          <t>Chain 5_Depot 2_SKU 7</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6_45627</t>
+          <t>Reliance_Mundka_Product_7_45627</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6</t>
+          <t>Reliance_Mundka_Product_7</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
-        <v>5.605</v>
+        <v>21963.71</v>
       </c>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="n">
-        <v>-6.648</v>
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -3490,7 +3698,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 7</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3500,14 +3708,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>15.6</v>
+        <v>13755.19</v>
       </c>
       <c r="K31" t="n">
-        <v>115.6</v>
+        <v>15130.709</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -3516,15 +3724,19 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>748.8</v>
+        <v>421.92</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -3541,37 +3753,40 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>13.572</v>
+        <v>13955.19</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 7</t>
+          <t>Chain 5_Depot 7_SKU 3</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7_45627</t>
+          <t>Reliance_Bangalore_Product_3_45627</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7</t>
+          <t>Reliance_Bangalore_Product_3</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="n">
-        <v>18.096</v>
+        <v>13555.19</v>
       </c>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="n">
-        <v>3.268799999999999</v>
+        <v>-2.5008</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -3583,12 +3798,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 4</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3598,14 +3813,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>38.15000000000001</v>
+        <v>11989.77</v>
       </c>
       <c r="K32" t="n">
-        <v>41.96500000000001</v>
+        <v>13188.747</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -3614,7 +3829,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
+          <t>2025-12-04 23:57:33</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3626,7 +3841,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>421.92</v>
+        <v>748.8</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
@@ -3643,37 +3858,40 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>31.6645</v>
+        <v>12189.77</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 8_SKU 9</t>
+          <t>Chain 4_Depot 2_SKU 3</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9_45627</t>
+          <t>Zepto_Mundka_Product_3_45627</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9</t>
+          <t>Zepto_Mundka_Product_3</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="n">
-        <v>44.63550000000001</v>
+        <v>11789.77</v>
       </c>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="n">
-        <v>-2.5008</v>
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
@@ -3700,14 +3918,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 6</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>10060.67</v>
       </c>
       <c r="K33" t="n">
-        <v>101.02</v>
+        <v>11066.737</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3716,15 +3934,19 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>672</v>
+        <v>84</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -3741,37 +3963,40 @@
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>0.8364</v>
+        <v>10260.67</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 9</t>
+          <t>Chain 5_Depot 2_SKU 6</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9_45627</t>
+          <t>Reliance_Mundka_Product_6_45627</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9</t>
+          <t>Reliance_Mundka_Product_6</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="n">
-        <v>1.1934</v>
+        <v>9860.67</v>
       </c>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>-6.648</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>-0.82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
@@ -3783,7 +4008,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3798,14 +4023,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 2</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1.02</v>
+        <v>14494.46</v>
       </c>
       <c r="K34" t="n">
-        <v>1.122</v>
+        <v>15943.906</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -3814,7 +4039,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
+          <t>2025-12-04 23:57:33</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3826,7 +4051,7 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>672</v>
+        <v>383.52</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -3843,26 +4068,26 @@
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>0.8364</v>
+        <v>14694.46</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 9</t>
+          <t>Chain 2_Depot 2_SKU 2</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9_45627</t>
+          <t>Swiggy_Mundka_Product_2_45627</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_9</t>
+          <t>Swiggy_Mundka_Product_2</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="n">
-        <v>1.1934</v>
+        <v>14294.46</v>
       </c>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
@@ -3870,27 +4095,30 @@
       <c r="AL34" t="n">
         <v>0</v>
       </c>
+      <c r="AM34" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3900,14 +4128,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1.68</v>
+        <v>24785.95</v>
       </c>
       <c r="K35" t="n">
-        <v>101.68</v>
+        <v>27264.545</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3916,10 +4144,14 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -3941,37 +4173,40 @@
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>1.6128</v>
+        <v>24985.95</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 7</t>
+          <t>Chain 3_Depot 3_SKU 3</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7_45627</t>
+          <t>Maharashtra_MH-Aggregated_Product_3_45627</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7</t>
+          <t>Maharashtra_MH-Aggregated_Product_3</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="n">
-        <v>1.8984</v>
+        <v>24585.95</v>
       </c>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>2.8848</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>-0.76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
@@ -3988,7 +4223,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3998,14 +4233,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>15.6</v>
+        <v>22918.71</v>
       </c>
       <c r="K36" t="n">
-        <v>17.16</v>
+        <v>25210.581</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -4014,7 +4249,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
+          <t>2025-12-04 23:57:33</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4026,7 +4261,7 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>748.8</v>
+        <v>421.92</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -4043,37 +4278,40 @@
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>13.572</v>
+        <v>23118.71</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 7</t>
+          <t>Chain 5_Depot 8_SKU 9</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7_45627</t>
+          <t>Reliance_Chennai_Product_9_45627</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_7</t>
+          <t>Reliance_Chennai_Product_9</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="n">
-        <v>18.096</v>
+        <v>22718.71</v>
       </c>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="n">
-        <v>3.268799999999999</v>
+        <v>-2.5008</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
@@ -4085,12 +4323,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4100,14 +4338,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2.73</v>
+        <v>20887.56</v>
       </c>
       <c r="K37" t="n">
-        <v>3.003</v>
+        <v>22976.316</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -4116,7 +4354,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
+          <t>2025-12-04 23:57:33</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4128,7 +4366,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -4145,54 +4383,57 @@
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>2.5116</v>
+        <v>21087.56</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 8_SKU 3</t>
+          <t>Chain 5_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3_45627</t>
+          <t>Reliance_Ahmedabad_Product_9_45627</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3</t>
+          <t>Reliance_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="n">
-        <v>3.0576</v>
+        <v>20687.56</v>
       </c>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="n">
-        <v>2.8848</v>
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>-0.55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Chain 4</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4202,14 +4443,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>4.36</v>
+        <v>20955.1</v>
       </c>
       <c r="K38" t="n">
-        <v>104.36</v>
+        <v>23050.61</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -4218,15 +4459,19 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
+          <t>2025-12-04 23:57:33</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>748.8</v>
+        <v>48</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -4243,37 +4488,40 @@
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>3.8804</v>
+        <v>21155.1</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>Chain 4_Depot 2_SKU 3</t>
+          <t>Chain 3_Depot 3_SKU 9</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3_45627</t>
+          <t>Maharashtra_MH-Aggregated_Product_9_45627</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3</t>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="n">
-        <v>4.6216</v>
+        <v>20755.1</v>
       </c>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="n">
-        <v>3.268799999999999</v>
+        <v>-0.36</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
@@ -4290,7 +4538,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Depot 7</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4300,14 +4548,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>7.04</v>
+        <v>12009.13</v>
       </c>
       <c r="K39" t="n">
-        <v>7.744000000000001</v>
+        <v>13210.043</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -4316,7 +4564,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
+          <t>2025-12-04 23:57:33</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4328,7 +4576,7 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>421.92</v>
+        <v>672</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -4345,37 +4593,40 @@
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>6.5472</v>
+        <v>12209.13</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 7_SKU 3</t>
+          <t>Chain 5_Depot 4_SKU 7</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3_45627</t>
+          <t>Reliance_Ahmedabad_Product_7_45627</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3</t>
+          <t>Reliance_Ahmedabad_Product_7</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="n">
-        <v>8.025600000000001</v>
+        <v>11809.13</v>
       </c>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="n">
-        <v>-2.5008</v>
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
@@ -4392,7 +4643,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4402,14 +4653,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>SKU 7</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1.68</v>
+        <v>6752.28</v>
       </c>
       <c r="K40" t="n">
-        <v>1.848</v>
+        <v>7427.508000000001</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -4418,7 +4669,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
+          <t>2025-12-04 23:57:33</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4447,26 +4698,26 @@
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>1.6128</v>
+        <v>6952.28</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 7</t>
+          <t>Chain 5_Depot 2_SKU 9</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7_45627</t>
+          <t>Reliance_Mundka_Product_9_45627</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_7</t>
+          <t>Reliance_Mundka_Product_9</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="n">
-        <v>1.8984</v>
+        <v>6552.28</v>
       </c>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
@@ -4474,10 +4725,13 @@
       <c r="AL40" t="n">
         <v>0</v>
       </c>
+      <c r="AM40" t="n">
+        <v>-0.63</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
@@ -4489,12 +4743,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Chain 5</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4504,14 +4758,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>SKU 6</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>4.75</v>
+        <v>24101.37</v>
       </c>
       <c r="K41" t="n">
-        <v>5.225000000000001</v>
+        <v>26511.507</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -4520,7 +4774,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
+          <t>2025-12-04 23:57:33</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4532,7 +4786,7 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>84</v>
+        <v>672</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -4549,54 +4803,57 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>3.99</v>
+        <v>24301.37</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 2_SKU 6</t>
+          <t>Chain 2_Depot 8_SKU 3</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6_45627</t>
+          <t>Swiggy_Chennai_Product_3_45627</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>Reliance_Mundka_Product_6</t>
+          <t>Swiggy_Chennai_Product_3</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
-        <v>5.605</v>
+        <v>23901.37</v>
       </c>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="n">
-        <v>-6.648</v>
+        <v>2.8848</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45627</v>
+        <v>25569.22969475694</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 6</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -4610,10 +4867,10 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>55.51000000000001</v>
+        <v>15475.63</v>
       </c>
       <c r="K42" t="n">
-        <v>61.06100000000001</v>
+        <v>17023.193</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -4622,7 +4879,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
+          <t>2025-12-04 23:57:33</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4634,7 +4891,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -4651,37 +4908,40 @@
         </is>
       </c>
       <c r="AC42" t="n">
-        <v>44.408</v>
+        <v>15675.63</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 9</t>
+          <t>Chain 6_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9_45627</t>
+          <t>Grofers_Ahmedabad_Product_9_45627</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9</t>
+          <t>Grofers_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="n">
-        <v>62.72630000000001</v>
+        <v>15275.63</v>
       </c>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="n">
-        <v>-0.36</v>
+        <v>-6.648</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
@@ -4698,7 +4958,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -4708,14 +4968,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>38.15000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="K43" t="n">
-        <v>138.15</v>
+        <v>17.6</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -4724,7 +4984,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
+          <t>2025-12-03 20:18:54</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -4749,37 +5009,38 @@
         </is>
       </c>
       <c r="AC43" t="n">
-        <v>31.6645</v>
+        <v>6.916</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 8_SKU 9</t>
+          <t>Chain 5_Depot 2_SKU 7</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9_45627</t>
+          <t>Reliance_Mundka_Product_7_45566</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>Reliance_Chennai_Product_9</t>
+          <t>Reliance_Mundka_Product_7</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="n">
-        <v>44.63550000000001</v>
+        <v>8.208</v>
       </c>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="n">
-        <v>-2.5008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AM43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
@@ -4796,7 +5057,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -4810,10 +5071,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>8.119999999999999</v>
+        <v>21.6</v>
       </c>
       <c r="K44" t="n">
-        <v>108.12</v>
+        <v>31.6</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -4822,7 +5083,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
+          <t>2025-12-03 20:18:54</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -4830,7 +5091,7 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>421.92</v>
+        <v>383.52</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -4847,54 +5108,55 @@
         </is>
       </c>
       <c r="AC44" t="n">
-        <v>8.119999999999999</v>
+        <v>17.28</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 9</t>
+          <t>Chain 5_Depot 8_SKU 9</t>
         </is>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9_45627</t>
+          <t>Reliance_Chennai_Product_9_45566</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9</t>
+          <t>Reliance_Chennai_Product_9</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="n">
-        <v>8.6884</v>
+        <v>25.056</v>
       </c>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="n">
-        <v>0</v>
-      </c>
+        <v>3.3552</v>
+      </c>
+      <c r="AM44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 6</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 4</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4908,10 +5170,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>55.51000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="K45" t="n">
-        <v>155.51</v>
+        <v>11.84</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -4920,7 +5182,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
+          <t>2025-12-03 20:18:54</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -4928,7 +5190,7 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>48</v>
+        <v>672</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -4945,37 +5207,38 @@
         </is>
       </c>
       <c r="AC45" t="n">
-        <v>44.408</v>
+        <v>1.7296</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 9</t>
+          <t>Chain 6_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9_45627</t>
+          <t>Grofers_Ahmedabad_Product_9_45566</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_9</t>
+          <t>Grofers_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="n">
-        <v>62.72630000000001</v>
+        <v>2.208</v>
       </c>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="n">
-        <v>-0.36</v>
-      </c>
+        <v>2.8848</v>
+      </c>
+      <c r="AM45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
@@ -5002,14 +5265,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 7</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>8.119999999999999</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>8.932</v>
+        <v>16.3</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -5018,19 +5281,15 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>421.92</v>
+        <v>383.52</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -5047,37 +5306,38 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>8.119999999999999</v>
+        <v>5.859000000000001</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 4_SKU 9</t>
+          <t>Chain 5_Depot 4_SKU 7</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9_45627</t>
+          <t>Reliance_Ahmedabad_Product_7_45566</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>Reliance_Ahmedabad_Product_9</t>
+          <t>Reliance_Ahmedabad_Product_7</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="n">
-        <v>8.6884</v>
+        <v>6.867000000000001</v>
       </c>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="n">
-        <v>0</v>
-      </c>
+        <v>3.3552</v>
+      </c>
+      <c r="AM46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
@@ -5089,12 +5349,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Chain 6</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Depot 4</t>
+          <t>Depot 8</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -5104,14 +5364,14 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>SKU 9</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>5.28</v>
+        <v>16</v>
       </c>
       <c r="K47" t="n">
-        <v>5.808000000000001</v>
+        <v>26</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -5120,19 +5380,15 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>84</v>
+        <v>748.8</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
@@ -5149,37 +5405,38 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>5.0688</v>
+        <v>12.96</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>Chain 6_Depot 4_SKU 9</t>
+          <t>Chain 2_Depot 8_SKU 3</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9_45627</t>
+          <t>Swiggy_Chennai_Product_3_45566</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9</t>
+          <t>Swiggy_Chennai_Product_3</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="n">
-        <v>6.283200000000001</v>
+        <v>18.88</v>
       </c>
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="n">
-        <v>-6.648</v>
-      </c>
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
@@ -5191,7 +5448,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Chain 6</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -5210,10 +5467,10 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>5.28</v>
+        <v>6.88</v>
       </c>
       <c r="K48" t="n">
-        <v>105.28</v>
+        <v>16.88</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -5222,7 +5479,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
+          <t>2025-12-03 20:18:54</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -5230,7 +5487,7 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>84</v>
+        <v>672</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
@@ -5247,54 +5504,55 @@
         </is>
       </c>
       <c r="AC48" t="n">
-        <v>5.0688</v>
+        <v>6.88</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>Chain 6_Depot 4_SKU 9</t>
+          <t>Chain 5_Depot 4_SKU 9</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9_45627</t>
+          <t>Reliance_Ahmedabad_Product_9_45566</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>Grofers_Ahmedabad_Product_9</t>
+          <t>Reliance_Ahmedabad_Product_9</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="n">
-        <v>6.283200000000001</v>
+        <v>8.256</v>
       </c>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="n">
-        <v>-6.648</v>
-      </c>
+        <v>2.8848</v>
+      </c>
+      <c r="AM48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 5</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5308,10 +5566,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>7.21</v>
+        <v>9.76</v>
       </c>
       <c r="K49" t="n">
-        <v>7.931000000000001</v>
+        <v>19.76</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -5320,19 +5578,15 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>672</v>
+        <v>421.92</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
@@ -5349,37 +5603,38 @@
         </is>
       </c>
       <c r="AC49" t="n">
-        <v>5.8401</v>
+        <v>8.686399999999999</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 3</t>
+          <t>Chain 2_Depot 5_SKU 3</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3_45627</t>
+          <t>Swiggy_Kolkata CFA_Product_3_45566</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3</t>
+          <t>Swiggy_Kolkata CFA_Product_3</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="n">
-        <v>8.075200000000001</v>
+        <v>10.4432</v>
       </c>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="n">
-        <v>2.8848</v>
-      </c>
+        <v>-2.5008</v>
+      </c>
+      <c r="AM49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
@@ -5391,7 +5646,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -5406,14 +5661,14 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>SKU 2</t>
+          <t>SKU 6</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>3.24</v>
+        <v>1.76</v>
       </c>
       <c r="K50" t="n">
-        <v>3.564000000000001</v>
+        <v>11.76</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -5422,19 +5677,15 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>383.52</v>
+        <v>672</v>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -5451,26 +5702,26 @@
         </is>
       </c>
       <c r="AC50" t="n">
-        <v>2.7216</v>
+        <v>1.5312</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 2_SKU 2</t>
+          <t>Chain 5_Depot 2_SKU 6</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2_45627</t>
+          <t>Reliance_Mundka_Product_6_45566</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2</t>
+          <t>Reliance_Mundka_Product_6</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="n">
-        <v>3.4668</v>
+        <v>1.936</v>
       </c>
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
@@ -5478,10 +5729,11 @@
       <c r="AL50" t="n">
         <v>0</v>
       </c>
+      <c r="AM50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
@@ -5493,12 +5745,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 5</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 7</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5508,14 +5760,14 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>SKU 2</t>
+          <t>SKU 3</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>3.24</v>
+        <v>4.6</v>
       </c>
       <c r="K51" t="n">
-        <v>103.24</v>
+        <v>14.6</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -5524,7 +5776,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
+          <t>2025-12-03 20:18:54</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -5532,7 +5784,7 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>383.52</v>
+        <v>421.92</v>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
@@ -5549,26 +5801,26 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>2.7216</v>
+        <v>4.324</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 2_SKU 2</t>
+          <t>Chain 5_Depot 7_SKU 3</t>
         </is>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2_45627</t>
+          <t>Reliance_Bangalore_Product_3_45566</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>Swiggy_Mundka_Product_2</t>
+          <t>Reliance_Bangalore_Product_3</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="n">
-        <v>3.4668</v>
+        <v>5.428</v>
       </c>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
@@ -5576,27 +5828,28 @@
       <c r="AL51" t="n">
         <v>0</v>
       </c>
+      <c r="AM51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Channel 1</t>
+          <t>Channel 2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Chain 3</t>
+          <t>Chain 2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Depot 3</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5606,14 +5859,14 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 2</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>7.21</v>
+        <v>27.5</v>
       </c>
       <c r="K52" t="n">
-        <v>107.21</v>
+        <v>37.5</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -5622,7 +5875,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
+          <t>2025-12-03 20:18:54</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -5630,7 +5883,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>672</v>
+        <v>84</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
@@ -5647,37 +5900,38 @@
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>5.8401</v>
+        <v>26.95</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>Chain 3_Depot 3_SKU 3</t>
+          <t>Chain 2_Depot 2_SKU 2</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3_45627</t>
+          <t>Swiggy_Mundka_Product_2_45566</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>Maharashtra_MH-Aggregated_Product_3</t>
+          <t>Swiggy_Mundka_Product_2</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="n">
-        <v>8.075200000000001</v>
+        <v>31.35</v>
       </c>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="n">
-        <v>2.8848</v>
-      </c>
+        <v>-6.648</v>
+      </c>
+      <c r="AM52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
@@ -5689,12 +5943,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Chain 2</t>
+          <t>Chain 4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Depot 8</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5708,10 +5962,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>2.73</v>
+        <v>16.94</v>
       </c>
       <c r="K53" t="n">
-        <v>102.73</v>
+        <v>26.94</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -5720,7 +5974,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
+          <t>2025-12-03 20:18:54</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -5728,7 +5982,7 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>672</v>
+        <v>748.8</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -5745,37 +5999,38 @@
         </is>
       </c>
       <c r="AC53" t="n">
-        <v>2.5116</v>
+        <v>14.399</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>Chain 2_Depot 8_SKU 3</t>
+          <t>Chain 4_Depot 2_SKU 3</t>
         </is>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3_45627</t>
+          <t>Zepto_Mundka_Product_3_45566</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>Swiggy_Chennai_Product_3</t>
+          <t>Zepto_Mundka_Product_3</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="n">
-        <v>3.0576</v>
+        <v>17.787</v>
       </c>
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="n">
-        <v>2.8848</v>
-      </c>
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
@@ -5792,7 +6047,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Depot 7</t>
+          <t>Depot 2</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5802,14 +6057,14 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>7.04</v>
+        <v>1.84</v>
       </c>
       <c r="K54" t="n">
-        <v>107.04</v>
+        <v>11.84</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -5818,7 +6073,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2025-12-03 16:55:34</t>
+          <t>2025-12-03 20:18:54</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -5826,7 +6081,7 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>421.92</v>
+        <v>672</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -5843,54 +6098,55 @@
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>6.5472</v>
+        <v>1.7664</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>Chain 5_Depot 7_SKU 3</t>
+          <t>Chain 5_Depot 2_SKU 9</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3_45627</t>
+          <t>Reliance_Mundka_Product_9_45566</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>Reliance_Bangalore_Product_3</t>
+          <t>Reliance_Mundka_Product_9</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="n">
-        <v>8.025600000000001</v>
+        <v>1.9872</v>
       </c>
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="n">
-        <v>-2.5008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AM54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Channel 2</t>
+          <t>Channel 1</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Chain 4</t>
+          <t>Chain 3</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Depot 2</t>
+          <t>Depot 3</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -5900,14 +6156,14 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>SKU 3</t>
+          <t>SKU 9</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>4.36</v>
+        <v>1.82</v>
       </c>
       <c r="K55" t="n">
-        <v>4.796000000000001</v>
+        <v>11.82</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -5916,19 +6172,15 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2025-12-03 16:50:07</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>promotional campaign</t>
-        </is>
-      </c>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>748.8</v>
+        <v>672</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
@@ -5945,33 +6197,4145 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>3.8804</v>
+        <v>1.4742</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>Chain 4_Depot 2_SKU 3</t>
+          <t>Chain 3_Depot 3_SKU 9</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3_45627</t>
+          <t>Maharashtra_MH-Aggregated_Product_9_45566</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>Zepto_Mundka_Product_3</t>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="n">
-        <v>4.6216</v>
+        <v>2.093</v>
       </c>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Channel 1</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Chain 3</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Depot 3</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="K56" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2025-12-03 20:18:54</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>84</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC56" t="n">
+        <v>7.5078</v>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>Chain 3_Depot 3_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_3_45566</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_3</t>
+        </is>
+      </c>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="n">
+        <v>10.476</v>
+      </c>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="n">
+        <v>-6.648</v>
+      </c>
+      <c r="AM56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>40.18</v>
+      </c>
+      <c r="K57" t="n">
+        <v>50.18</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>84</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC57" t="n">
+        <v>37.7692</v>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 2_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_9_45597</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_9</t>
+        </is>
+      </c>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="n">
+        <v>43.7962</v>
+      </c>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="n">
+        <v>-6.648</v>
+      </c>
+      <c r="AM57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>SKU 6</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K58" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>672</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 2_SKU 6</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_6_45597</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_6</t>
+        </is>
+      </c>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="n">
+        <v>2.5228</v>
+      </c>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Chain 4</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>421.92</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC59" t="n">
+        <v>16.638</v>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>Chain 4_Depot 2_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>Zepto_Mundka_Product_3_45597</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Zepto_Mundka_Product_3</t>
+        </is>
+      </c>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="n">
+        <v>-2.5008</v>
+      </c>
+      <c r="AM59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Chain 2</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Depot 8</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K60" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>421.92</v>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC60" t="n">
+        <v>3.4398</v>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Chain 2_Depot 8_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>Swiggy_Chennai_Product_3_45597</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>Swiggy_Chennai_Product_3</t>
+        </is>
+      </c>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="n">
+        <v>4.0068</v>
+      </c>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Chain 2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Depot 5</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>84</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC61" t="n">
+        <v>7.220999999999999</v>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>Chain 2_Depot 5_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>Swiggy_Kolkata CFA_Product_3_45597</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Swiggy_Kolkata CFA_Product_3</t>
+        </is>
+      </c>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="n">
+        <v>9.308999999999999</v>
+      </c>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="n">
+        <v>-6.648</v>
+      </c>
+      <c r="AM61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Channel 1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Chain 3</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Depot 3</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K62" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>672</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.1472</v>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Chain 3_Depot 3_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_3_45597</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_3</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="n">
+        <v>2.7328</v>
+      </c>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Depot 4</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>SKU 7</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>748.8</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC63" t="n">
+        <v>27.63900000000001</v>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 4_SKU 7</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_7_45597</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_7</t>
+        </is>
+      </c>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="n">
+        <v>36.297</v>
+      </c>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="n">
         <v>3.268799999999999</v>
       </c>
+      <c r="AM63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Depot 4</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K64" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC64" t="n">
+        <v>3.1623</v>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 4_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_9_45597</t>
+        </is>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_9</t>
+        </is>
+      </c>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="n">
+        <v>4.4958</v>
+      </c>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Depot 8</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K65" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>672</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC65" t="n">
+        <v>2.0768</v>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 8_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>Reliance_Chennai_Product_9_45597</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>Reliance_Chennai_Product_9</t>
+        </is>
+      </c>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="n">
+        <v>2.5252</v>
+      </c>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Chain 2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>SKU 2</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="K66" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC66" t="n">
+        <v>7.3656</v>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>Chain 2_Depot 2_SKU 2</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>Swiggy_Mundka_Product_2_45597</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>Swiggy_Mundka_Product_2</t>
+        </is>
+      </c>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="n">
+        <v>9.345599999999999</v>
+      </c>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="n">
+        <v>3.3552</v>
+      </c>
+      <c r="AM66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>SKU 7</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>44.08</v>
+      </c>
+      <c r="K67" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>421.92</v>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC67" t="n">
+        <v>36.5864</v>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 2_SKU 7</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_7_45597</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_7</t>
+        </is>
+      </c>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="n">
+        <v>48.9288</v>
+      </c>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="n">
+        <v>-2.5008</v>
+      </c>
+      <c r="AM67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Channel 1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Chain 3</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Depot 3</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K68" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>672</v>
+      </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC68" t="n">
+        <v>3.477600000000001</v>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>Chain 3_Depot 3_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_9_45597</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
+        </is>
+      </c>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="n">
+        <v>4.309200000000001</v>
+      </c>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Chain 6</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Depot 4</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="K69" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>748.8</v>
+      </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC69" t="n">
+        <v>13.5828</v>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>Chain 6_Depot 4_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>Grofers_Ahmedabad_Product_9_45597</t>
+        </is>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>Grofers_Ahmedabad_Product_9</t>
+        </is>
+      </c>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="n">
+        <v>16.0524</v>
+      </c>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="n">
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Depot 7</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K70" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2025-12-03 17:46:54</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>672</v>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC70" t="n">
+        <v>3.1584</v>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 7_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>Reliance_Bangalore_Product_3_45597</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>Reliance_Bangalore_Product_3</t>
+        </is>
+      </c>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="n">
+        <v>3.6624</v>
+      </c>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="n">
+        <v>2.8848</v>
+      </c>
+      <c r="AM70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Depot 4</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>SKU 7</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>672</v>
+      </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.6128</v>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 4_SKU 7</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_7_45627</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_7</t>
+        </is>
+      </c>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="n">
+        <v>1.8984</v>
+      </c>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Depot 4</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="K72" t="n">
+        <v>108.12</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>421.92</v>
+      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC72" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 4_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_9_45627</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_9</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="n">
+        <v>8.6884</v>
+      </c>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Depot 7</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="K73" t="n">
+        <v>7.744000000000001</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>421.92</v>
+      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC73" t="n">
+        <v>6.5472</v>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 7_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>Reliance_Bangalore_Product_3_45627</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>Reliance_Bangalore_Product_3</t>
+        </is>
+      </c>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="n">
+        <v>8.025600000000001</v>
+      </c>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="n">
+        <v>-2.5008</v>
+      </c>
+      <c r="AM73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Chain 4</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="K74" t="n">
+        <v>104.36</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>748.8</v>
+      </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC74" t="n">
+        <v>3.8804</v>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>Chain 4_Depot 2_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>Zepto_Mundka_Product_3_45627</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>Zepto_Mundka_Product_3</t>
+        </is>
+      </c>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="n">
+        <v>4.6216</v>
+      </c>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="n">
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Chain 2</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Depot 8</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3.003</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>672</v>
+      </c>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.5116</v>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>Chain 2_Depot 8_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>Swiggy_Chennai_Product_3_45627</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>Swiggy_Chennai_Product_3</t>
+        </is>
+      </c>
+      <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="n">
+        <v>3.0576</v>
+      </c>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="n">
+        <v>2.8848</v>
+      </c>
+      <c r="AM75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>SKU 7</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K76" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>748.8</v>
+      </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC76" t="n">
+        <v>13.572</v>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 2_SKU 7</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_7_45627</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_7</t>
+        </is>
+      </c>
+      <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="n">
+        <v>18.096</v>
+      </c>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="n">
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Depot 8</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>38.15000000000001</v>
+      </c>
+      <c r="K77" t="n">
+        <v>138.15</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>421.92</v>
+      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC77" t="n">
+        <v>31.6645</v>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 8_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>Reliance_Chennai_Product_9_45627</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>Reliance_Chennai_Product_9</t>
+        </is>
+      </c>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="n">
+        <v>44.63550000000001</v>
+      </c>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="n">
+        <v>-2.5008</v>
+      </c>
+      <c r="AM77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>672</v>
+      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.8364</v>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 2_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_9_45627</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_9</t>
+        </is>
+      </c>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="n">
+        <v>1.1934</v>
+      </c>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K79" t="n">
+        <v>101.02</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>672</v>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC79" t="n">
+        <v>0.8364</v>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 2_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_9_45627</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_9</t>
+        </is>
+      </c>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="n">
+        <v>1.1934</v>
+      </c>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Depot 8</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>38.15000000000001</v>
+      </c>
+      <c r="K80" t="n">
+        <v>41.96500000000001</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>421.92</v>
+      </c>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC80" t="n">
+        <v>31.6645</v>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 8_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>Reliance_Chennai_Product_9_45627</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>Reliance_Chennai_Product_9</t>
+        </is>
+      </c>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="n">
+        <v>44.63550000000001</v>
+      </c>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="n">
+        <v>-2.5008</v>
+      </c>
+      <c r="AM80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>SKU 7</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>748.8</v>
+      </c>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC81" t="n">
+        <v>13.572</v>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 2_SKU 7</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_7_45627</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_7</t>
+        </is>
+      </c>
+      <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="n">
+        <v>18.096</v>
+      </c>
+      <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="n">
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>SKU 6</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K82" t="n">
+        <v>5.225000000000001</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>84</v>
+      </c>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC82" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 2_SKU 6</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_6_45627</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_6</t>
+        </is>
+      </c>
+      <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="n">
+        <v>5.605</v>
+      </c>
+      <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="n">
+        <v>-6.648</v>
+      </c>
+      <c r="AM82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Chain 4</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="K83" t="n">
+        <v>4.796000000000001</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>748.8</v>
+      </c>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC83" t="n">
+        <v>3.8804</v>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>Chain 4_Depot 2_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>Zepto_Mundka_Product_3_45627</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>Zepto_Mundka_Product_3</t>
+        </is>
+      </c>
+      <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="n">
+        <v>4.6216</v>
+      </c>
+      <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="n">
+        <v>3.268799999999999</v>
+      </c>
+      <c r="AM83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Channel 1</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Chain 3</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Depot 3</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="K84" t="n">
+        <v>7.931000000000001</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>672</v>
+      </c>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC84" t="n">
+        <v>5.8401</v>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>Chain 3_Depot 3_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_3_45627</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_3</t>
+        </is>
+      </c>
+      <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="n">
+        <v>8.075200000000001</v>
+      </c>
+      <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="n">
+        <v>2.8848</v>
+      </c>
+      <c r="AM84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Chain 2</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Depot 8</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K85" t="n">
+        <v>102.73</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>672</v>
+      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.5116</v>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>Chain 2_Depot 8_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>Swiggy_Chennai_Product_3_45627</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>Swiggy_Chennai_Product_3</t>
+        </is>
+      </c>
+      <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="n">
+        <v>3.0576</v>
+      </c>
+      <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="n">
+        <v>2.8848</v>
+      </c>
+      <c r="AM85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Channel 1</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Chain 3</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Depot 3</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="K86" t="n">
+        <v>107.21</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>672</v>
+      </c>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC86" t="n">
+        <v>5.8401</v>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>Chain 3_Depot 3_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_3_45627</t>
+        </is>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_3</t>
+        </is>
+      </c>
+      <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="n">
+        <v>8.075200000000001</v>
+      </c>
+      <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="n">
+        <v>2.8848</v>
+      </c>
+      <c r="AM86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Chain 2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>SKU 2</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K87" t="n">
+        <v>103.24</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC87" t="n">
+        <v>2.7216</v>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>Chain 2_Depot 2_SKU 2</t>
+        </is>
+      </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>Swiggy_Mundka_Product_2_45627</t>
+        </is>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>Swiggy_Mundka_Product_2</t>
+        </is>
+      </c>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="n">
+        <v>3.4668</v>
+      </c>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Chain 2</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>SKU 2</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3.564000000000001</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC88" t="n">
+        <v>2.7216</v>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>Chain 2_Depot 2_SKU 2</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>Swiggy_Mundka_Product_2_45627</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>Swiggy_Mundka_Product_2</t>
+        </is>
+      </c>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="n">
+        <v>3.4668</v>
+      </c>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Channel 1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Chain 3</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Depot 3</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>55.51000000000001</v>
+      </c>
+      <c r="K89" t="n">
+        <v>61.06100000000001</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>48</v>
+      </c>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC89" t="n">
+        <v>44.408</v>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>Chain 3_Depot 3_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_9_45627</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
+        </is>
+      </c>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="n">
+        <v>62.72630000000001</v>
+      </c>
+      <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="AM89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Chain 6</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Depot 4</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="K90" t="n">
+        <v>105.28</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>84</v>
+      </c>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC90" t="n">
+        <v>5.0688</v>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>Chain 6_Depot 4_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>Grofers_Ahmedabad_Product_9_45627</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>Grofers_Ahmedabad_Product_9</t>
+        </is>
+      </c>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="n">
+        <v>6.283200000000001</v>
+      </c>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="n">
+        <v>-6.648</v>
+      </c>
+      <c r="AM90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Chain 6</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Depot 4</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="K91" t="n">
+        <v>5.808000000000001</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>84</v>
+      </c>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC91" t="n">
+        <v>5.0688</v>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>Chain 6_Depot 4_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>Grofers_Ahmedabad_Product_9_45627</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>Grofers_Ahmedabad_Product_9</t>
+        </is>
+      </c>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="n">
+        <v>6.283200000000001</v>
+      </c>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="n">
+        <v>-6.648</v>
+      </c>
+      <c r="AM91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Depot 4</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="K92" t="n">
+        <v>8.932</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:50:07</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>promotional campaign</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>421.92</v>
+      </c>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC92" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 4_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_9_45627</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_9</t>
+        </is>
+      </c>
+      <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="n">
+        <v>8.6884</v>
+      </c>
+      <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Channel 1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Chain 3</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Depot 3</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>SKU 9</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>55.51000000000001</v>
+      </c>
+      <c r="K93" t="n">
+        <v>155.51</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>48</v>
+      </c>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC93" t="n">
+        <v>44.408</v>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>Chain 3_Depot 3_SKU 9</t>
+        </is>
+      </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_9_45627</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>Maharashtra_MH-Aggregated_Product_9</t>
+        </is>
+      </c>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="n">
+        <v>62.72630000000001</v>
+      </c>
+      <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="AM93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Depot 2</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>SKU 6</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K94" t="n">
+        <v>104.75</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>84</v>
+      </c>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC94" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 2_SKU 6</t>
+        </is>
+      </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_6_45627</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>Reliance_Mundka_Product_6</t>
+        </is>
+      </c>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="n">
+        <v>5.605</v>
+      </c>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="n">
+        <v>-6.648</v>
+      </c>
+      <c r="AM94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Depot 7</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>SKU 3</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="K95" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>421.92</v>
+      </c>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC95" t="n">
+        <v>6.5472</v>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 7_SKU 3</t>
+        </is>
+      </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>Reliance_Bangalore_Product_3_45627</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>Reliance_Bangalore_Product_3</t>
+        </is>
+      </c>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="n">
+        <v>8.025600000000001</v>
+      </c>
+      <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="n">
+        <v>-2.5008</v>
+      </c>
+      <c r="AM95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Channel 2</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Chain 5</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Depot 4</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>SubCat 2</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>SKU 7</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K96" t="n">
+        <v>101.68</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2025-12-03 16:55:34</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>672</v>
+      </c>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.6128</v>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>Chain 5_Depot 4_SKU 7</t>
+        </is>
+      </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_7_45627</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>Reliance_Ahmedabad_Product_7</t>
+        </is>
+      </c>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="n">
+        <v>1.8984</v>
+      </c>
+      <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
